--- a/Equipe5/Lista 3/Time2.xlsx
+++ b/Equipe5/Lista 3/Time2.xlsx
@@ -26,9 +26,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>Questao 9</t>
-  </si>
-  <si>
     <t xml:space="preserve">Teste10000 </t>
   </si>
   <si>
@@ -36,6 +33,9 @@
   </si>
   <si>
     <t>Teste1000000</t>
+  </si>
+  <si>
+    <t>Questao 9 - BuscaBinario</t>
   </si>
 </sst>
 </file>
@@ -361,7 +361,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -373,12 +373,12 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>0.312</v>
@@ -413,7 +413,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>25.51</v>
@@ -448,7 +448,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="8:8" x14ac:dyDescent="0.25">

--- a/Equipe5/Lista 3/Time2.xlsx
+++ b/Equipe5/Lista 3/Time2.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
   <si>
     <t xml:space="preserve">Teste10000 </t>
   </si>
@@ -36,6 +36,12 @@
   </si>
   <si>
     <t>Questao 9 - BuscaBinario</t>
+  </si>
+  <si>
+    <t>Questao 9 - Busca Sequencial</t>
+  </si>
+  <si>
+    <t>Questao 9 - Busca Sequencial com Sentinela</t>
   </si>
 </sst>
 </file>
@@ -361,14 +367,14 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.5703125" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="1" customWidth="1"/>
-    <col min="3" max="10" width="9.140625" style="1"/>
+    <col min="2" max="10" width="11.42578125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -450,6 +456,256 @@
       <c r="A4" t="s">
         <v>2</v>
       </c>
+      <c r="B4" s="1">
+        <v>222.51</v>
+      </c>
+      <c r="C4" s="1">
+        <v>221.23</v>
+      </c>
+      <c r="D4" s="1">
+        <v>219.24</v>
+      </c>
+      <c r="E4" s="1">
+        <v>223.47</v>
+      </c>
+      <c r="F4" s="1">
+        <v>215.72</v>
+      </c>
+      <c r="G4" s="1">
+        <v>219.63</v>
+      </c>
+      <c r="H4" s="1">
+        <v>217</v>
+      </c>
+      <c r="I4" s="1">
+        <v>223.78</v>
+      </c>
+      <c r="J4" s="1">
+        <v>231.12</v>
+      </c>
+      <c r="K4" s="1">
+        <v>220.62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.312</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.307</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0.307</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="K7">
+        <v>0.309</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1">
+        <v>25.51</v>
+      </c>
+      <c r="C8" s="1">
+        <v>25.652999999999999</v>
+      </c>
+      <c r="D8" s="1">
+        <v>25.626999999999999</v>
+      </c>
+      <c r="E8" s="1">
+        <v>25.545999999999999</v>
+      </c>
+      <c r="F8" s="1">
+        <v>25.460999999999999</v>
+      </c>
+      <c r="G8" s="1">
+        <v>25.486000000000001</v>
+      </c>
+      <c r="H8" s="1">
+        <v>25.818999999999999</v>
+      </c>
+      <c r="I8" s="1">
+        <v>25.582000000000001</v>
+      </c>
+      <c r="J8" s="1">
+        <v>25.518000000000001</v>
+      </c>
+      <c r="K8">
+        <v>25.456</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="1">
+        <v>222.51</v>
+      </c>
+      <c r="C9" s="1">
+        <v>221.23</v>
+      </c>
+      <c r="D9" s="1">
+        <v>219.24</v>
+      </c>
+      <c r="E9" s="1">
+        <v>223.47</v>
+      </c>
+      <c r="F9" s="1">
+        <v>215.72</v>
+      </c>
+      <c r="G9" s="1">
+        <v>219.63</v>
+      </c>
+      <c r="H9" s="1">
+        <v>217</v>
+      </c>
+      <c r="I9" s="1">
+        <v>223.78</v>
+      </c>
+      <c r="J9" s="1">
+        <v>231.12</v>
+      </c>
+      <c r="K9" s="1">
+        <v>220.62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.312</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.307</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0.307</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="K12">
+        <v>0.309</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="1">
+        <v>25.51</v>
+      </c>
+      <c r="C13" s="1">
+        <v>25.652999999999999</v>
+      </c>
+      <c r="D13" s="1">
+        <v>25.626999999999999</v>
+      </c>
+      <c r="E13" s="1">
+        <v>25.545999999999999</v>
+      </c>
+      <c r="F13" s="1">
+        <v>25.460999999999999</v>
+      </c>
+      <c r="G13" s="1">
+        <v>25.486000000000001</v>
+      </c>
+      <c r="H13" s="1">
+        <v>25.818999999999999</v>
+      </c>
+      <c r="I13" s="1">
+        <v>25.582000000000001</v>
+      </c>
+      <c r="J13" s="1">
+        <v>25.518000000000001</v>
+      </c>
+      <c r="K13">
+        <v>25.456</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="1">
+        <v>222.51</v>
+      </c>
+      <c r="C14" s="1">
+        <v>221.23</v>
+      </c>
+      <c r="D14" s="1">
+        <v>219.24</v>
+      </c>
+      <c r="E14" s="1">
+        <v>223.47</v>
+      </c>
+      <c r="F14" s="1">
+        <v>215.72</v>
+      </c>
+      <c r="G14" s="1">
+        <v>219.63</v>
+      </c>
+      <c r="H14" s="1">
+        <v>217</v>
+      </c>
+      <c r="I14" s="1">
+        <v>223.78</v>
+      </c>
+      <c r="J14" s="1">
+        <v>231.12</v>
+      </c>
+      <c r="K14" s="1">
+        <v>220.62</v>
+      </c>
     </row>
     <row r="18" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H18" s="2"/>

--- a/Equipe5/Lista 3/Time2.xlsx
+++ b/Equipe5/Lista 3/Time2.xlsx
@@ -48,11 +48,20 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.00000"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -80,10 +89,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -367,7 +378,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -496,105 +507,105 @@
       <c r="A7" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="1">
-        <v>0.312</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0.30399999999999999</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0.30299999999999999</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0.307</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0.30299999999999999</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0.30399999999999999</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0.30399999999999999</v>
-      </c>
-      <c r="I7" s="1">
-        <v>0.307</v>
-      </c>
-      <c r="J7" s="1">
-        <v>0.30299999999999999</v>
+      <c r="B7" s="3">
+        <v>0.46200000000000002</v>
+      </c>
+      <c r="C7">
+        <v>0.45800000000000002</v>
+      </c>
+      <c r="D7">
+        <v>0.45200000000000001</v>
+      </c>
+      <c r="E7">
+        <v>0.46800000000000003</v>
+      </c>
+      <c r="F7">
+        <v>0.53600000000000003</v>
+      </c>
+      <c r="G7">
+        <v>0.47299999999999998</v>
+      </c>
+      <c r="H7">
+        <v>0.46300000000000002</v>
+      </c>
+      <c r="I7">
+        <v>0.44600000000000001</v>
+      </c>
+      <c r="J7">
+        <v>0.443</v>
       </c>
       <c r="K7">
-        <v>0.309</v>
+        <v>0.45200000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="1">
-        <v>25.51</v>
-      </c>
-      <c r="C8" s="1">
-        <v>25.652999999999999</v>
-      </c>
-      <c r="D8" s="1">
-        <v>25.626999999999999</v>
-      </c>
-      <c r="E8" s="1">
-        <v>25.545999999999999</v>
-      </c>
-      <c r="F8" s="1">
-        <v>25.460999999999999</v>
-      </c>
-      <c r="G8" s="1">
-        <v>25.486000000000001</v>
-      </c>
-      <c r="H8" s="1">
-        <v>25.818999999999999</v>
-      </c>
-      <c r="I8" s="1">
-        <v>25.582000000000001</v>
-      </c>
-      <c r="J8" s="1">
-        <v>25.518000000000001</v>
-      </c>
-      <c r="K8">
-        <v>25.456</v>
+      <c r="B8" s="4">
+        <v>40.317</v>
+      </c>
+      <c r="C8" s="4">
+        <v>41.134999999999998</v>
+      </c>
+      <c r="D8" s="4">
+        <v>39.192999999999998</v>
+      </c>
+      <c r="E8" s="4">
+        <v>38.924999999999997</v>
+      </c>
+      <c r="F8" s="4">
+        <v>39.360999999999997</v>
+      </c>
+      <c r="G8" s="4">
+        <v>42.43</v>
+      </c>
+      <c r="H8" s="4">
+        <v>40.627000000000002</v>
+      </c>
+      <c r="I8" s="4">
+        <v>40.859000000000002</v>
+      </c>
+      <c r="J8" s="4">
+        <v>40.052999999999997</v>
+      </c>
+      <c r="K8" s="4">
+        <v>40.5</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="1">
-        <v>222.51</v>
-      </c>
-      <c r="C9" s="1">
-        <v>221.23</v>
-      </c>
-      <c r="D9" s="1">
-        <v>219.24</v>
-      </c>
-      <c r="E9" s="1">
-        <v>223.47</v>
-      </c>
-      <c r="F9" s="1">
-        <v>215.72</v>
-      </c>
-      <c r="G9" s="1">
-        <v>219.63</v>
-      </c>
-      <c r="H9" s="1">
-        <v>217</v>
-      </c>
-      <c r="I9" s="1">
-        <v>223.78</v>
-      </c>
-      <c r="J9" s="1">
-        <v>231.12</v>
-      </c>
-      <c r="K9" s="1">
-        <v>220.62</v>
+      <c r="B9" s="4">
+        <v>420.017</v>
+      </c>
+      <c r="C9" s="4">
+        <v>411.23500000000001</v>
+      </c>
+      <c r="D9" s="4">
+        <v>393.00299999999999</v>
+      </c>
+      <c r="E9" s="4">
+        <v>392.20499999999998</v>
+      </c>
+      <c r="F9" s="4">
+        <v>414.601</v>
+      </c>
+      <c r="G9" s="4">
+        <v>414.5</v>
+      </c>
+      <c r="H9" s="4">
+        <v>436.40699999999998</v>
+      </c>
+      <c r="I9" s="4">
+        <v>422.50900000000001</v>
+      </c>
+      <c r="J9" s="4">
+        <v>410.53</v>
+      </c>
+      <c r="K9" s="4">
+        <v>423.6</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -606,105 +617,105 @@
       <c r="A12" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="1">
-        <v>0.312</v>
-      </c>
-      <c r="C12" s="1">
-        <v>0.30399999999999999</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0.30299999999999999</v>
-      </c>
-      <c r="E12" s="1">
-        <v>0.307</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0.30299999999999999</v>
-      </c>
-      <c r="G12" s="1">
-        <v>0.30399999999999999</v>
-      </c>
-      <c r="H12" s="1">
-        <v>0.30399999999999999</v>
-      </c>
-      <c r="I12" s="1">
-        <v>0.307</v>
-      </c>
-      <c r="J12" s="1">
-        <v>0.30299999999999999</v>
-      </c>
-      <c r="K12">
-        <v>0.309</v>
+      <c r="B12" s="3">
+        <v>0.38900000000000001</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.39400000000000002</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.34599999999999997</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0.372</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="J12" s="3">
+        <v>0.34100000000000003</v>
+      </c>
+      <c r="K12" s="3">
+        <v>0.38200000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="1">
-        <v>25.51</v>
-      </c>
-      <c r="C13" s="1">
-        <v>25.652999999999999</v>
-      </c>
-      <c r="D13" s="1">
-        <v>25.626999999999999</v>
-      </c>
-      <c r="E13" s="1">
-        <v>25.545999999999999</v>
-      </c>
-      <c r="F13" s="1">
-        <v>25.460999999999999</v>
-      </c>
-      <c r="G13" s="1">
-        <v>25.486000000000001</v>
-      </c>
-      <c r="H13" s="1">
-        <v>25.818999999999999</v>
-      </c>
-      <c r="I13" s="1">
-        <v>25.582000000000001</v>
-      </c>
-      <c r="J13" s="1">
-        <v>25.518000000000001</v>
-      </c>
-      <c r="K13">
-        <v>25.456</v>
+      <c r="B13" s="4">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="C13" s="4">
+        <v>36.432000000000002</v>
+      </c>
+      <c r="D13" s="4">
+        <v>36.542999999999999</v>
+      </c>
+      <c r="E13" s="4">
+        <v>37.424999999999997</v>
+      </c>
+      <c r="F13" s="4">
+        <v>34.572000000000003</v>
+      </c>
+      <c r="G13" s="4">
+        <v>35.722000000000001</v>
+      </c>
+      <c r="H13" s="4">
+        <v>34.567</v>
+      </c>
+      <c r="I13" s="4">
+        <v>36.771000000000001</v>
+      </c>
+      <c r="J13" s="4">
+        <v>37.289000000000001</v>
+      </c>
+      <c r="K13" s="4">
+        <v>35.450000000000003</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="1">
-        <v>222.51</v>
-      </c>
-      <c r="C14" s="1">
-        <v>221.23</v>
-      </c>
-      <c r="D14" s="1">
-        <v>219.24</v>
-      </c>
-      <c r="E14" s="1">
-        <v>223.47</v>
-      </c>
-      <c r="F14" s="1">
-        <v>215.72</v>
-      </c>
-      <c r="G14" s="1">
-        <v>219.63</v>
-      </c>
-      <c r="H14" s="1">
-        <v>217</v>
-      </c>
-      <c r="I14" s="1">
-        <v>223.78</v>
-      </c>
-      <c r="J14" s="1">
-        <v>231.12</v>
-      </c>
-      <c r="K14" s="1">
-        <v>220.62</v>
+      <c r="B14" s="4">
+        <v>359.02300000000002</v>
+      </c>
+      <c r="C14" s="4">
+        <v>354.322</v>
+      </c>
+      <c r="D14" s="4">
+        <v>352.59500000000003</v>
+      </c>
+      <c r="E14" s="4">
+        <v>353.23599999999999</v>
+      </c>
+      <c r="F14" s="4">
+        <v>328.02300000000002</v>
+      </c>
+      <c r="G14" s="4">
+        <v>351.05399999999997</v>
+      </c>
+      <c r="H14" s="4">
+        <v>354.036</v>
+      </c>
+      <c r="I14" s="4">
+        <v>352.52199999999999</v>
+      </c>
+      <c r="J14" s="4">
+        <v>358.43599999999998</v>
+      </c>
+      <c r="K14" s="4">
+        <v>354.036</v>
       </c>
     </row>
     <row r="18" spans="8:8" x14ac:dyDescent="0.25">
